--- a/CleanData/EvaluationATSU_pre.xlsx
+++ b/CleanData/EvaluationATSU_pre.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="80" windowWidth="33440" windowHeight="21940"/>
+    <workbookView xWindow="-39860" yWindow="0" windowWidth="33440" windowHeight="21520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>N27</t>
   </si>
   <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Average School  Math.</t>
-  </si>
-  <si>
-    <t>Unuversity Year</t>
-  </si>
-  <si>
-    <t>Average Univer. Math.</t>
-  </si>
-  <si>
     <t>N1</t>
   </si>
   <si>
@@ -127,13 +112,28 @@
     <t>N3</t>
   </si>
   <si>
-    <t>Gender</t>
+    <t>Technological Engineering</t>
   </si>
   <si>
-    <t>Compare with classmates</t>
+    <t>gender</t>
   </si>
   <si>
-    <t>Technological Engineering</t>
+    <t>age</t>
+  </si>
+  <si>
+    <t>university year</t>
+  </si>
+  <si>
+    <t>asm</t>
+  </si>
+  <si>
+    <t>aum</t>
+  </si>
+  <si>
+    <t>cwc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty    </t>
   </si>
 </sst>
 </file>
@@ -150,18 +150,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Sylfean"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Sylfean"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,16 +196,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -564,35 +564,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -680,8 +680,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -784,8 +784,8 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>34</v>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -878,7 +878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -888,8 +888,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>34</v>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -992,8 +992,8 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>34</v>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -1086,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1096,8 +1096,8 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E6">
         <v>9</v>
@@ -1190,7 +1190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1200,8 +1200,8 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1304,8 +1304,8 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1408,8 +1408,8 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1512,8 +1512,8 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>34</v>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1606,7 +1606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1616,8 +1616,8 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>34</v>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E11">
         <v>8.5</v>
@@ -1710,7 +1710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1720,8 +1720,8 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>34</v>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1814,7 +1814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1824,8 +1824,8 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>34</v>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -1918,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1928,8 +1928,8 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>34</v>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -2022,7 +2022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2032,8 +2032,8 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>34</v>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -2126,7 +2126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="144" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2136,8 +2136,8 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -2230,7 +2230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2240,8 +2240,8 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>34</v>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2344,8 +2344,8 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>34</v>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -2438,7 +2438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2448,8 +2448,8 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>34</v>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -2542,7 +2542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2552,8 +2552,8 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>34</v>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -2646,7 +2646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2656,8 +2656,8 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>34</v>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -2750,7 +2750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2760,8 +2760,8 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>34</v>
+      <c r="D22" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E22">
         <v>9</v>
@@ -2854,7 +2854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2864,8 +2864,8 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>34</v>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -2958,7 +2958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2968,8 +2968,8 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>34</v>
+      <c r="D24" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E24">
         <v>9</v>
@@ -3062,7 +3062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3072,8 +3072,8 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>34</v>
+      <c r="D25" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -3166,7 +3166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3176,8 +3176,8 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>34</v>
+      <c r="D26" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -3270,7 +3270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3280,8 +3280,8 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>34</v>
+      <c r="D27" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -3374,7 +3374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3384,8 +3384,8 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>34</v>
+      <c r="D28" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E28">
         <v>9</v>
@@ -3478,7 +3478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3488,8 +3488,8 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>34</v>
+      <c r="D29" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -3582,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3592,8 +3592,8 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>34</v>
+      <c r="D30" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E30">
         <v>9</v>
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -3696,8 +3696,8 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>34</v>
+      <c r="D31" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E31">
         <v>9</v>
@@ -3790,7 +3790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3800,8 +3800,8 @@
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>34</v>
+      <c r="D32" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -3894,7 +3894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3904,8 +3904,8 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>34</v>
+      <c r="D33" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E33">
         <v>8</v>
@@ -3998,7 +3998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -4008,8 +4008,8 @@
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>34</v>
+      <c r="D34" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E34">
         <v>9</v>
@@ -4102,7 +4102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4112,8 +4112,8 @@
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>34</v>
+      <c r="D35" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E35">
         <v>7</v>
@@ -4206,7 +4206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4216,8 +4216,8 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>34</v>
+      <c r="D36" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -4310,7 +4310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -4320,8 +4320,8 @@
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>34</v>
+      <c r="D37" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E37">
         <v>9</v>
@@ -4414,7 +4414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4424,8 +4424,8 @@
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>34</v>
+      <c r="D38" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E38">
         <v>9</v>
@@ -4518,7 +4518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4528,8 +4528,8 @@
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>34</v>
+      <c r="D39" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E39">
         <v>9</v>
@@ -4622,7 +4622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -4632,8 +4632,8 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>34</v>
+      <c r="D40" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E40">
         <v>9</v>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -4736,8 +4736,8 @@
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>34</v>
+      <c r="D41" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E41">
         <v>9</v>
@@ -4830,7 +4830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -4840,8 +4840,8 @@
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>34</v>
+      <c r="D42" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E42">
         <v>8</v>
@@ -4934,7 +4934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -4944,8 +4944,8 @@
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>34</v>
+      <c r="D43" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E43">
         <v>9</v>
@@ -5038,7 +5038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5048,8 +5048,8 @@
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>34</v>
+      <c r="D44" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E44">
         <v>8</v>
@@ -5142,7 +5142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5152,8 +5152,8 @@
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>34</v>
+      <c r="D45" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E45">
         <v>9</v>
